--- a/examples/SBB/model_config.SBB.xlsx
+++ b/examples/SBB/model_config.SBB.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10887" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10870" uniqueCount="655">
   <si>
     <t>type</t>
   </si>
@@ -1988,81 +1988,6 @@
     <t>Mn{2+}</t>
   </si>
   <si>
-    <t>SO4</t>
-  </si>
-  <si>
-    <t>HSO4</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
-    <t>PO4</t>
-  </si>
-  <si>
-    <t>HPO4</t>
-  </si>
-  <si>
-    <t>H2PO4</t>
-  </si>
-  <si>
-    <t>H3PO4</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>HCO3</t>
-  </si>
-  <si>
-    <t>CO3</t>
-  </si>
-  <si>
-    <t>H2S</t>
-  </si>
-  <si>
-    <t>HS</t>
-  </si>
-  <si>
-    <t>H3SiO4</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>H3BO3</t>
-  </si>
-  <si>
-    <t>H4BO4</t>
-  </si>
-  <si>
-    <t>Al(OH)[4]</t>
-  </si>
-  <si>
-    <t>MoO4</t>
-  </si>
-  <si>
-    <t>Nd</t>
-  </si>
-  <si>
-    <t>Nd144</t>
-  </si>
-  <si>
-    <t>Nd143</t>
-  </si>
-  <si>
-    <t>Ndnr</t>
-  </si>
-  <si>
-    <t>Ndr</t>
-  </si>
-  <si>
     <t>Mol_dis</t>
   </si>
   <si>
@@ -2073,13 +1998,28 @@
   </si>
   <si>
     <t>model_name</t>
+  </si>
+  <si>
+    <t>Ca{2+}</t>
+  </si>
+  <si>
+    <t>NO2{-}</t>
+  </si>
+  <si>
+    <t>NO3{-}</t>
+  </si>
+  <si>
+    <t>MoO4{2-}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2172,6 +2112,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2193,7 +2140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2233,6 +2180,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2516,7 +2473,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3127,223 +3084,354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.23046875" style="29"/>
+    <col min="9" max="9" width="5.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>674</v>
-      </c>
-      <c r="B1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="B6" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+      <c r="B8" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
+      <c r="B10" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="26" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="28" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="28" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28" t="s">
+      <c r="D11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="28" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="28" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="28" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="28" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="28" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="28" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="28" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="28" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="28" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="28" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="28" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="28" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="28" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="28" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="28" t="s">
-        <v>569</v>
-      </c>
+      <c r="B12" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="26"/>
+      <c r="D13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="26"/>
+      <c r="D14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="26"/>
+      <c r="D15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="26"/>
+      <c r="D16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="26"/>
+      <c r="D17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="33"/>
+      <c r="D18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="33"/>
+      <c r="D19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="33"/>
+      <c r="D20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="33"/>
+      <c r="D21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="33"/>
+      <c r="D22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="33"/>
+      <c r="D23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="33"/>
+      <c r="D24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="33"/>
+      <c r="D25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="33"/>
+      <c r="D26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="33"/>
+      <c r="D27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="33"/>
+      <c r="D28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="33"/>
+      <c r="D29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="33"/>
+      <c r="D30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="33"/>
+      <c r="D31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="33"/>
+      <c r="D32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="33"/>
+      <c r="D33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="33"/>
+      <c r="D34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="33"/>
+      <c r="D35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="33"/>
+      <c r="D36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="33"/>
+      <c r="D37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="33"/>
+      <c r="D38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="33"/>
+      <c r="D39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="33"/>
+      <c r="D40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="33"/>
+      <c r="D41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="33"/>
+      <c r="D42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="33"/>
+      <c r="D43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="33"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D47" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3352,7 +3440,7 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/examples/SBB/model_config.SBB.xlsx
+++ b/examples/SBB/model_config.SBB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9471" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9471" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10887" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10889" uniqueCount="669">
   <si>
     <t>type</t>
   </si>
@@ -2049,6 +2049,9 @@
   </si>
   <si>
     <t>RMoh_rm2</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -3121,7 +3124,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3141,6 +3144,9 @@
       <c r="B1" s="31" t="s">
         <v>617</v>
       </c>
+      <c r="C1" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -3150,6 +3156,9 @@
       <c r="B2" s="25" t="s">
         <v>614</v>
       </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
       <c r="D2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -3161,6 +3170,9 @@
       <c r="B3" s="25" t="s">
         <v>583</v>
       </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -3172,6 +3184,9 @@
       <c r="B4" s="25" t="s">
         <v>613</v>
       </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -3183,6 +3198,9 @@
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -3194,6 +3212,9 @@
       <c r="B6" s="25" t="s">
         <v>621</v>
       </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -3205,6 +3226,9 @@
       <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -3216,6 +3240,9 @@
       <c r="B8" s="25" t="s">
         <v>620</v>
       </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -3227,6 +3254,9 @@
       <c r="B9" s="25" t="s">
         <v>619</v>
       </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -3238,6 +3268,9 @@
       <c r="B10" s="25" t="s">
         <v>622</v>
       </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -3249,6 +3282,9 @@
       <c r="B11" s="25" t="s">
         <v>622</v>
       </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -3259,6 +3295,9 @@
       </c>
       <c r="B12" s="25" t="s">
         <v>129</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
       </c>
       <c r="D12" s="12"/>
       <c r="H12" s="12"/>
@@ -7035,7 +7074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
@@ -7757,10 +7796,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7773,7 +7812,7 @@
     <col min="6" max="6" width="6.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -7792,8 +7831,11 @@
       <c r="F1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>459</v>
       </c>
@@ -7812,8 +7854,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -7833,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>459</v>
       </c>
@@ -7853,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>459</v>
       </c>
@@ -7870,7 +7915,7 @@
         <v>0.97403080314248569</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>459</v>
       </c>
@@ -7887,7 +7932,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>459</v>
       </c>
@@ -7907,7 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>459</v>
       </c>
@@ -7924,7 +7969,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -7944,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>459</v>
       </c>
@@ -7961,7 +8006,7 @@
         <v>-9.8800000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>459</v>
       </c>
@@ -7978,7 +8023,7 @@
         <v>-21.26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>459</v>
       </c>
@@ -7995,7 +8040,7 @@
         <v>-31.097299999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>459</v>
       </c>
@@ -8012,7 +8057,7 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>459</v>
       </c>
@@ -8032,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>459</v>
       </c>
@@ -8052,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>499</v>
       </c>
@@ -8071,8 +8116,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>499</v>
       </c>
@@ -8092,8 +8140,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>499</v>
       </c>
@@ -8113,8 +8164,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>499</v>
       </c>
@@ -8134,8 +8188,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>499</v>
       </c>
@@ -8155,8 +8212,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>505</v>
       </c>
@@ -8175,8 +8235,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>505</v>
       </c>
@@ -8196,8 +8259,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="22" t="s">
         <v>505</v>
       </c>
@@ -8217,8 +8283,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="22" t="s">
         <v>505</v>
       </c>
@@ -8238,8 +8307,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="22" t="s">
         <v>505</v>
       </c>
@@ -8259,8 +8331,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="22" t="s">
         <v>460</v>
       </c>
@@ -8279,8 +8354,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="22" t="s">
         <v>461</v>
       </c>
@@ -8299,8 +8377,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D28" s="5"/>
     </row>
   </sheetData>
